--- a/data/reports/player_2_analysis.xlsx
+++ b/data/reports/player_2_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="277">
   <si>
     <t>Player 2 Analytics</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Video ID:</t>
   </si>
   <si>
-    <t>t2omui24nswm</t>
+    <t>rgz7fo9wohv4</t>
   </si>
   <si>
     <t>PERFORMANCE GRADES</t>
@@ -165,12 +165,15 @@
     <t>Returning</t>
   </si>
   <si>
-    <t>33.3%</t>
+    <t>20.0%</t>
   </si>
   <si>
     <t>Serving</t>
   </si>
   <si>
+    <t>50.0%</t>
+  </si>
+  <si>
     <t>SUMMARY</t>
   </si>
   <si>
@@ -192,19 +195,16 @@
     <t>Quality Score</t>
   </si>
   <si>
-    <t xml:space="preserve">Rally 18, Shot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rally 25, Shot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rally 32, Shot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rally 34, Shot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rally 16, Shot </t>
+    <t xml:space="preserve">Rally 6, Shot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally 3, Shot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally 1, Shot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally 20, Shot </t>
   </si>
   <si>
     <t>Rally</t>
@@ -234,778 +234,622 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>20966</t>
+  </si>
+  <si>
+    <t>22233</t>
+  </si>
+  <si>
+    <t>43.503</t>
+  </si>
+  <si>
+    <t>7.596</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>24166</t>
+  </si>
+  <si>
+    <t>25166</t>
+  </si>
+  <si>
+    <t>41.58</t>
+  </si>
+  <si>
+    <t>5.877</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>27266</t>
+  </si>
+  <si>
+    <t>28100</t>
+  </si>
+  <si>
+    <t>31.735</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
     <t>serve</t>
   </si>
   <si>
-    <t>9275</t>
-  </si>
-  <si>
-    <t>10243</t>
-  </si>
-  <si>
-    <t>43.553</t>
-  </si>
-  <si>
-    <t>3.964</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>17851</t>
-  </si>
-  <si>
-    <t>18885</t>
-  </si>
-  <si>
-    <t>39.08</t>
-  </si>
-  <si>
-    <t>4.694</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>40733</t>
+  </si>
+  <si>
+    <t>41566</t>
+  </si>
+  <si>
+    <t>40.475</t>
+  </si>
+  <si>
+    <t>3.932</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>43366</t>
+  </si>
+  <si>
+    <t>44166</t>
+  </si>
+  <si>
+    <t>29.766</t>
+  </si>
+  <si>
+    <t>3.828</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>45266</t>
+  </si>
+  <si>
+    <t>46000</t>
+  </si>
+  <si>
+    <t>29.408</t>
+  </si>
+  <si>
+    <t>54833</t>
+  </si>
+  <si>
+    <t>55633</t>
+  </si>
+  <si>
+    <t>44.101</t>
+  </si>
+  <si>
+    <t>5.268</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>20320</t>
-  </si>
-  <si>
-    <t>21654</t>
-  </si>
-  <si>
-    <t>29.16</t>
-  </si>
-  <si>
-    <t>7.178</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>31197</t>
-  </si>
-  <si>
-    <t>31998</t>
-  </si>
-  <si>
-    <t>41.386</t>
-  </si>
-  <si>
-    <t>3.702</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>33833</t>
-  </si>
-  <si>
-    <t>34868</t>
-  </si>
-  <si>
-    <t>35.031</t>
-  </si>
-  <si>
-    <t>5.992</t>
-  </si>
-  <si>
-    <t>45812</t>
-  </si>
-  <si>
-    <t>46780</t>
-  </si>
-  <si>
-    <t>49.762</t>
-  </si>
-  <si>
-    <t>5.347</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>56256</t>
-  </si>
-  <si>
-    <t>57490</t>
-  </si>
-  <si>
-    <t>42.503</t>
-  </si>
-  <si>
-    <t>5.218</t>
+    <t>57533</t>
+  </si>
+  <si>
+    <t>58933</t>
+  </si>
+  <si>
+    <t>23.923</t>
+  </si>
+  <si>
+    <t>69266</t>
+  </si>
+  <si>
+    <t>70233</t>
+  </si>
+  <si>
+    <t>41.346</t>
+  </si>
+  <si>
+    <t>5.533</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>71800</t>
+  </si>
+  <si>
+    <t>72900</t>
+  </si>
+  <si>
+    <t>36.377</t>
+  </si>
+  <si>
+    <t>10.809</t>
+  </si>
+  <si>
+    <t>97200</t>
+  </si>
+  <si>
+    <t>98100</t>
+  </si>
+  <si>
+    <t>23.587</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>86519</t>
-  </si>
-  <si>
-    <t>87354</t>
-  </si>
-  <si>
-    <t>41.541</t>
-  </si>
-  <si>
-    <t>3.996</t>
-  </si>
-  <si>
-    <t>89222</t>
-  </si>
-  <si>
-    <t>90357</t>
-  </si>
-  <si>
-    <t>43.868</t>
-  </si>
-  <si>
-    <t>5.864</t>
+    <t>109600</t>
+  </si>
+  <si>
+    <t>110600</t>
+  </si>
+  <si>
+    <t>40.385</t>
+  </si>
+  <si>
+    <t>5.675</t>
+  </si>
+  <si>
+    <t>112766</t>
+  </si>
+  <si>
+    <t>114000</t>
+  </si>
+  <si>
+    <t>44.541</t>
+  </si>
+  <si>
+    <t>6.321</t>
+  </si>
+  <si>
+    <t>dink</t>
+  </si>
+  <si>
+    <t>116433</t>
+  </si>
+  <si>
+    <t>117266</t>
+  </si>
+  <si>
+    <t>16.429</t>
+  </si>
+  <si>
+    <t>4.155</t>
+  </si>
+  <si>
+    <t>118433</t>
+  </si>
+  <si>
+    <t>119400</t>
+  </si>
+  <si>
+    <t>25.094</t>
+  </si>
+  <si>
+    <t>4.899</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>98465</t>
-  </si>
-  <si>
-    <t>99632</t>
-  </si>
-  <si>
-    <t>27.975</t>
-  </si>
-  <si>
-    <t>5.221</t>
+    <t>132233</t>
+  </si>
+  <si>
+    <t>132966</t>
+  </si>
+  <si>
+    <t>33.874</t>
+  </si>
+  <si>
+    <t>3.365</t>
+  </si>
+  <si>
+    <t>134966</t>
+  </si>
+  <si>
+    <t>135733</t>
+  </si>
+  <si>
+    <t>32.955</t>
+  </si>
+  <si>
+    <t>3.409</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>113546</t>
-  </si>
-  <si>
-    <t>114681</t>
-  </si>
-  <si>
-    <t>33.636</t>
-  </si>
-  <si>
-    <t>6.272</t>
+    <t>145333</t>
+  </si>
+  <si>
+    <t>146466</t>
+  </si>
+  <si>
+    <t>39.942</t>
+  </si>
+  <si>
+    <t>6.386</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>125191</t>
-  </si>
-  <si>
-    <t>125592</t>
-  </si>
-  <si>
-    <t>21.765</t>
+    <t>155333</t>
+  </si>
+  <si>
+    <t>156466</t>
+  </si>
+  <si>
+    <t>40.539</t>
+  </si>
+  <si>
+    <t>6.301</t>
+  </si>
+  <si>
+    <t>158300</t>
+  </si>
+  <si>
+    <t>160333</t>
+  </si>
+  <si>
+    <t>23.201</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>175100</t>
+  </si>
+  <si>
+    <t>176200</t>
+  </si>
+  <si>
+    <t>37.089</t>
+  </si>
+  <si>
+    <t>4.719</t>
+  </si>
+  <si>
+    <t>atp</t>
+  </si>
+  <si>
+    <t>178266</t>
+  </si>
+  <si>
+    <t>179233</t>
+  </si>
+  <si>
+    <t>39.303</t>
+  </si>
+  <si>
+    <t>5.163</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>150250</t>
-  </si>
-  <si>
-    <t>151584</t>
-  </si>
-  <si>
-    <t>45.336</t>
-  </si>
-  <si>
-    <t>7.753</t>
+    <t>189000</t>
+  </si>
+  <si>
+    <t>190266</t>
+  </si>
+  <si>
+    <t>44.931</t>
+  </si>
+  <si>
+    <t>7.501</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>202133</t>
+  </si>
+  <si>
+    <t>203233</t>
+  </si>
+  <si>
+    <t>40.492</t>
+  </si>
+  <si>
+    <t>5.579</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>178345</t>
-  </si>
-  <si>
-    <t>179212</t>
-  </si>
-  <si>
-    <t>37.232</t>
-  </si>
-  <si>
-    <t>3.926</t>
-  </si>
-  <si>
-    <t>181114</t>
-  </si>
-  <si>
-    <t>182048</t>
-  </si>
-  <si>
-    <t>36.556</t>
-  </si>
-  <si>
-    <t>3.22</t>
+    <t>220500</t>
+  </si>
+  <si>
+    <t>221266</t>
+  </si>
+  <si>
+    <t>35.683</t>
+  </si>
+  <si>
+    <t>3.479</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>194194</t>
-  </si>
-  <si>
-    <t>194728</t>
-  </si>
-  <si>
-    <t>23.102</t>
+    <t>228700</t>
+  </si>
+  <si>
+    <t>228900</t>
+  </si>
+  <si>
+    <t>11.975</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>215715</t>
-  </si>
-  <si>
-    <t>216649</t>
-  </si>
-  <si>
-    <t>49.29</t>
-  </si>
-  <si>
-    <t>4.753</t>
+    <t>237666</t>
+  </si>
+  <si>
+    <t>238700</t>
+  </si>
+  <si>
+    <t>42.477</t>
+  </si>
+  <si>
+    <t>5.159</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>229362</t>
-  </si>
-  <si>
-    <t>230163</t>
-  </si>
-  <si>
-    <t>41.269</t>
-  </si>
-  <si>
-    <t>3.597</t>
-  </si>
-  <si>
-    <t>231831</t>
-  </si>
-  <si>
-    <t>233033</t>
-  </si>
-  <si>
-    <t>35.694</t>
-  </si>
-  <si>
-    <t>5.43</t>
+    <t>251233</t>
+  </si>
+  <si>
+    <t>252200</t>
+  </si>
+  <si>
+    <t>42.965</t>
+  </si>
+  <si>
+    <t>6.619</t>
+  </si>
+  <si>
+    <t>254500</t>
+  </si>
+  <si>
+    <t>255600</t>
+  </si>
+  <si>
+    <t>40.748</t>
+  </si>
+  <si>
+    <t>6.288</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>248314</t>
-  </si>
-  <si>
-    <t>249215</t>
-  </si>
-  <si>
-    <t>39.904</t>
-  </si>
-  <si>
-    <t>4.496</t>
+    <t>272800</t>
+  </si>
+  <si>
+    <t>274300</t>
+  </si>
+  <si>
+    <t>39.349</t>
+  </si>
+  <si>
+    <t>9.869</t>
+  </si>
+  <si>
+    <t>276266</t>
+  </si>
+  <si>
+    <t>277900</t>
+  </si>
+  <si>
+    <t>37.267</t>
+  </si>
+  <si>
+    <t>11.056</t>
+  </si>
+  <si>
+    <t>279866</t>
+  </si>
+  <si>
+    <t>280433</t>
+  </si>
+  <si>
+    <t>19.633</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>260560</t>
-  </si>
-  <si>
-    <t>261461</t>
-  </si>
-  <si>
-    <t>40.536</t>
-  </si>
-  <si>
-    <t>263196</t>
-  </si>
-  <si>
-    <t>264130</t>
-  </si>
-  <si>
-    <t>35.904</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>265865</t>
-  </si>
-  <si>
-    <t>266900</t>
-  </si>
-  <si>
-    <t>35.014</t>
-  </si>
-  <si>
-    <t>5.545</t>
-  </si>
-  <si>
-    <t>268001</t>
-  </si>
-  <si>
-    <t>269169</t>
-  </si>
-  <si>
-    <t>31.624</t>
-  </si>
-  <si>
-    <t>8.002</t>
+    <t>290833</t>
+  </si>
+  <si>
+    <t>291766</t>
+  </si>
+  <si>
+    <t>40.838</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>293433</t>
+  </si>
+  <si>
+    <t>294200</t>
+  </si>
+  <si>
+    <t>35.211</t>
+  </si>
+  <si>
+    <t>3.677</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>303670</t>
-  </si>
-  <si>
-    <t>304704</t>
-  </si>
-  <si>
-    <t>34.816</t>
-  </si>
-  <si>
-    <t>5.084</t>
+    <t>305633</t>
+  </si>
+  <si>
+    <t>306833</t>
+  </si>
+  <si>
+    <t>41.496</t>
+  </si>
+  <si>
+    <t>6.134</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>321621</t>
-  </si>
-  <si>
-    <t>322522</t>
-  </si>
-  <si>
-    <t>45.306</t>
-  </si>
-  <si>
-    <t>3.497</t>
+    <t>320000</t>
+  </si>
+  <si>
+    <t>321366</t>
+  </si>
+  <si>
+    <t>48.66</t>
+  </si>
+  <si>
+    <t>8.909</t>
+  </si>
+  <si>
+    <t>323733</t>
+  </si>
+  <si>
+    <t>324800</t>
+  </si>
+  <si>
+    <t>33.823</t>
+  </si>
+  <si>
+    <t>5.806</t>
+  </si>
+  <si>
+    <t>326900</t>
+  </si>
+  <si>
+    <t>328133</t>
+  </si>
+  <si>
+    <t>43.994</t>
+  </si>
+  <si>
+    <t>7.352</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>331131</t>
-  </si>
-  <si>
-    <t>331965</t>
-  </si>
-  <si>
-    <t>43.945</t>
-  </si>
-  <si>
-    <t>3.621</t>
-  </si>
-  <si>
-    <t>dink</t>
-  </si>
-  <si>
-    <t>333733</t>
-  </si>
-  <si>
-    <t>333933</t>
-  </si>
-  <si>
-    <t>23.938</t>
+    <t>338400</t>
+  </si>
+  <si>
+    <t>338866</t>
+  </si>
+  <si>
+    <t>24.506</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>352852</t>
-  </si>
-  <si>
-    <t>354020</t>
-  </si>
-  <si>
-    <t>38.229</t>
-  </si>
-  <si>
-    <t>6.858</t>
-  </si>
-  <si>
-    <t>355221</t>
-  </si>
-  <si>
-    <t>355422</t>
-  </si>
-  <si>
-    <t>4.378</t>
+    <t>349533</t>
+  </si>
+  <si>
+    <t>350966</t>
+  </si>
+  <si>
+    <t>48.812</t>
+  </si>
+  <si>
+    <t>10.147</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>377010</t>
-  </si>
-  <si>
-    <t>377944</t>
-  </si>
-  <si>
-    <t>36.889</t>
-  </si>
-  <si>
-    <t>4.025</t>
-  </si>
-  <si>
-    <t>379713</t>
-  </si>
-  <si>
-    <t>380146</t>
-  </si>
-  <si>
-    <t>35.189</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>382449</t>
-  </si>
-  <si>
-    <t>384217</t>
-  </si>
-  <si>
-    <t>43.248</t>
-  </si>
-  <si>
-    <t>9.993</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>403536</t>
-  </si>
-  <si>
-    <t>404304</t>
-  </si>
-  <si>
-    <t>41.15</t>
-  </si>
-  <si>
-    <t>3.431</t>
-  </si>
-  <si>
-    <t>406139</t>
-  </si>
-  <si>
-    <t>407173</t>
-  </si>
-  <si>
-    <t>26.268</t>
-  </si>
-  <si>
-    <t>4.685</t>
-  </si>
-  <si>
-    <t>408541</t>
-  </si>
-  <si>
-    <t>408742</t>
-  </si>
-  <si>
-    <t>23.606</t>
+    <t>362433</t>
+  </si>
+  <si>
+    <t>363000</t>
+  </si>
+  <si>
+    <t>36.099</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>373633</t>
+  </si>
+  <si>
+    <t>374200</t>
+  </si>
+  <si>
+    <t>39.653</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>422122</t>
-  </si>
-  <si>
-    <t>422989</t>
-  </si>
-  <si>
-    <t>44.169</t>
-  </si>
-  <si>
-    <t>3.486</t>
-  </si>
-  <si>
-    <t>424824</t>
-  </si>
-  <si>
-    <t>425759</t>
-  </si>
-  <si>
-    <t>39.881</t>
-  </si>
-  <si>
-    <t>4.76</t>
+    <t>394233</t>
+  </si>
+  <si>
+    <t>395400</t>
+  </si>
+  <si>
+    <t>35.562</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>396666</t>
+  </si>
+  <si>
+    <t>397966</t>
+  </si>
+  <si>
+    <t>26.565</t>
+  </si>
+  <si>
+    <t>8.231</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>434968</t>
-  </si>
-  <si>
-    <t>435835</t>
-  </si>
-  <si>
-    <t>46.154</t>
-  </si>
-  <si>
-    <t>4.279</t>
-  </si>
-  <si>
-    <t>437470</t>
-  </si>
-  <si>
-    <t>438605</t>
-  </si>
-  <si>
-    <t>42.212</t>
-  </si>
-  <si>
-    <t>4.801</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>447280</t>
-  </si>
-  <si>
-    <t>447514</t>
-  </si>
-  <si>
-    <t>13.67</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>461695</t>
-  </si>
-  <si>
-    <t>462762</t>
-  </si>
-  <si>
-    <t>33.391</t>
-  </si>
-  <si>
-    <t>5.508</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>474841</t>
-  </si>
-  <si>
-    <t>475308</t>
-  </si>
-  <si>
-    <t>22.633</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>487053</t>
-  </si>
-  <si>
-    <t>488121</t>
-  </si>
-  <si>
-    <t>36.762</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>498098</t>
-  </si>
-  <si>
-    <t>498932</t>
-  </si>
-  <si>
-    <t>38.389</t>
-  </si>
-  <si>
-    <t>3.666</t>
-  </si>
-  <si>
-    <t>500767</t>
-  </si>
-  <si>
-    <t>501568</t>
-  </si>
-  <si>
-    <t>33.307</t>
-  </si>
-  <si>
-    <t>4.069</t>
-  </si>
-  <si>
-    <t>503036</t>
-  </si>
-  <si>
-    <t>504137</t>
-  </si>
-  <si>
-    <t>30.512</t>
-  </si>
-  <si>
-    <t>5.558</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>515982</t>
-  </si>
-  <si>
-    <t>516750</t>
-  </si>
-  <si>
-    <t>38.473</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>527994</t>
-  </si>
-  <si>
-    <t>528762</t>
-  </si>
-  <si>
-    <t>37.656</t>
-  </si>
-  <si>
-    <t>3.227</t>
-  </si>
-  <si>
-    <t>530663</t>
-  </si>
-  <si>
-    <t>531464</t>
-  </si>
-  <si>
-    <t>30.767</t>
-  </si>
-  <si>
-    <t>3.177</t>
-  </si>
-  <si>
-    <t>532932</t>
-  </si>
-  <si>
-    <t>533033</t>
-  </si>
-  <si>
-    <t>1.165</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>542375</t>
-  </si>
-  <si>
-    <t>543710</t>
-  </si>
-  <si>
-    <t>45.521</t>
-  </si>
-  <si>
-    <t>6.885</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>550350</t>
-  </si>
-  <si>
-    <t>551451</t>
-  </si>
-  <si>
-    <t>39.056</t>
-  </si>
-  <si>
-    <t>4.902</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>565298</t>
-  </si>
-  <si>
-    <t>566232</t>
-  </si>
-  <si>
-    <t>44.928</t>
-  </si>
-  <si>
-    <t>4.814</t>
-  </si>
-  <si>
-    <t>568234</t>
-  </si>
-  <si>
-    <t>569769</t>
-  </si>
-  <si>
-    <t>38.025</t>
-  </si>
-  <si>
-    <t>9.964</t>
-  </si>
-  <si>
-    <t>571738</t>
-  </si>
-  <si>
-    <t>572405</t>
-  </si>
-  <si>
-    <t>19.777</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>583650</t>
-  </si>
-  <si>
-    <t>584784</t>
-  </si>
-  <si>
-    <t>40.893</t>
-  </si>
-  <si>
-    <t>5.658</t>
+    <t>408966</t>
+  </si>
+  <si>
+    <t>409966</t>
+  </si>
+  <si>
+    <t>41.363</t>
+  </si>
+  <si>
+    <t>5.074</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1335,8 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1530,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>4.262789473684211</v>
+        <v>4.259352941176473</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1538,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>3.83625</v>
+        <v>5.3596875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1546,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1554,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>7.4441875</v>
+        <v>7.987666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1562,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>5.457333333333334</v>
+        <v>6.784285714285715</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1570,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1578,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1586,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1651,7 +1495,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="3">
-        <v>39.73721052631578</v>
+        <v>39.74064705882353</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1659,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="3">
-        <v>3.83625</v>
+        <v>5.3596875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1667,7 +1511,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1699,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1723,7 +1567,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1731,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1606,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="3">
-        <v>36.5558125</v>
+        <v>36.01233333333333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1770,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="3">
-        <v>5.457333333333334</v>
+        <v>6.784285714285715</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1778,7 +1622,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1810,7 +1654,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1834,7 +1678,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1842,7 +1686,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1891,33 +1735,33 @@
         <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3">
         <v>33.33333333333333</v>
@@ -1930,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1942,18 +1786,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1962,7 +1806,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -1971,7 +1815,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -1980,19 +1824,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2003,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2043,65 +1878,65 @@
         <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>86</v>
@@ -2118,16 +1953,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>91</v>
@@ -2144,16 +1979,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>96</v>
@@ -2170,790 +2005,786 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E36" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>234</v>
@@ -2965,21 +2796,21 @@
         <v>236</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>238</v>
@@ -2996,16 +2827,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>242</v>
@@ -3025,13 +2856,13 @@
         <v>246</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>247</v>
@@ -3042,22 +2873,20 @@
       <c r="G40" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>251</v>
@@ -3077,13 +2906,13 @@
         <v>255</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>256</v>
@@ -3094,20 +2923,22 @@
       <c r="G42" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>260</v>
@@ -3119,391 +2950,85 @@
         <v>262</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
